--- a/Data/Dynamic's Traits - 3192556292/Dynamic's Traits - 3192556292.xlsx
+++ b/Data/Dynamic's Traits - 3192556292/Dynamic's Traits - 3192556292.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zilrt\Desktop\RimworldExtractor-Standard\Dynamic's Traits - 3192556292\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\알티\갱신\Dynamic's Traits - 3192556292\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08026EB4-63C1-4A7E-BCFA-886E6BA3FFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C08E594-6704-4DBA-BEC4-51F6C2846AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="287">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -40,12 +53,207 @@
     <t>Korean (한국어) [Translation]</t>
   </si>
   <si>
+    <t>TraitDef+Talking_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>TraitDef</t>
+  </si>
+  <si>
+    <t>Talking_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Disingenuous</t>
+  </si>
+  <si>
+    <t>TraitDef+Talking_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Talking_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Evasive wording and sarcasm is [PAWN_nameDef]'s bread and butter when it comes to social situations. It makes it hard to take anything [PAWN_pronoun] says seriously.</t>
+  </si>
+  <si>
+    <t>TraitDef+Talking_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Talking_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>TraitDef+Talking_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>Talking_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] means every single word [PAWN_pronoun] says, and never lies to avoid hurting someones feelings or to make them feel better than they are. Everyone takes what [PAWN_nameDef] says to heart.</t>
+  </si>
+  <si>
+    <t>TraitDef+Religion_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Religion_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Doubtful</t>
+  </si>
+  <si>
+    <t>TraitDef+Religion_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Religion_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] doesn't have much faith in [PAWN_possessive] beliefs and can easily be swayed by one [PAWN_pronoun] sees as more appealing. When times are hard, [PAWN_pronoun] often blames what [PAWN_pronoun] believes in.</t>
+  </si>
+  <si>
+    <t>TraitDef+Religion_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Religion_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Devout</t>
+  </si>
+  <si>
+    <t>TraitDef+Religion_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>Religion_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] is extremely devoted to [PAWN_possessive] beliefs and won't be easily swayed. When things are hard, [PAWN_nameDef] finds strength and purpose in what [PAWN_pronoun] believes.</t>
+  </si>
+  <si>
+    <t>TraitDef+Temper_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Temper_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Tempermental</t>
+  </si>
+  <si>
+    <t>TraitDef+Temper_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Temper_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] has a very short fuse and tends to blow up at the smallest slights and annoyances.</t>
+  </si>
+  <si>
+    <t>TraitDef+Temper_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Temper_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>TraitDef+Temper_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>Temper_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] is a very patient person that is willing to put up with more than most and hear people out.</t>
+  </si>
+  <si>
+    <t>TraitDef+Eating_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Eating_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Slow eater</t>
+  </si>
+  <si>
+    <t>TraitDef+Eating_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Eating_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] gets easily distracted with talking and daydreaming when [PAWN_pronoun] eats, causing [PAWN_objective] to take much longer to finish [PAWN_possessive] meal.</t>
+  </si>
+  <si>
+    <t>TraitDef+Eating_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Eating_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Fast eater</t>
+  </si>
+  <si>
+    <t>TraitDef+Eating_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>Eating_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] has places [PAWN_pronoun] would rather be and things [PAWN_pronoun] would rather do, and as a result [PAWN_pronoun] eats his food much faster than others.</t>
+  </si>
+  <si>
+    <t>TraitDef+Talent_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Talent_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Gifted</t>
+  </si>
+  <si>
+    <t>TraitDef+Talent_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Talent_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] is just naturally good at everything [PAWN_pronoun] does. However, this does have the tragic side effect of [PAWN_nameDef] never really learning how to practice or study.</t>
+  </si>
+  <si>
+    <t>TraitDef+Talent_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Talent_DT.degreeDatas.1.label</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>TraitDef+Talent_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>Talent_DT.degreeDatas.1.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] might not seem like much, but with hard work and time [PAWN_pronoun] can become something amazing.</t>
+  </si>
+  <si>
+    <t>TraitDef+BodySize_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>BodySize_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Petite</t>
+  </si>
+  <si>
+    <t>TraitDef+BodySize_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>BodySize_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] is unusualy small for a person [PAWN_possessive] age.</t>
+  </si>
+  <si>
     <t>TraitDef+Zoophobic_DT.degreeDatas.0.label</t>
   </si>
   <si>
-    <t>TraitDef</t>
-  </si>
-  <si>
     <t>Zoophobic_DT.degreeDatas.0.label</t>
   </si>
   <si>
@@ -148,7 +356,7 @@
     <t>Narcissist_DT.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>[PAWN_nameDef] is quite smitten with [PAWN_objective]self and wont do any work [PAWN_pronoun] views as beneath [PAWN_possessive]. [PAWN_pronoun] does appreciate accomidations and people that suit [PAWN_possessive] percieved greatness however.</t>
+    <t>[PAWN_nameDef] is quite smitten with [PAWN_objective]self and wont do any work [PAWN_pronoun] views as beneath [PAWN_possessive].</t>
   </si>
   <si>
     <t>TraitDef+Dunce_DT.degreeDatas.0.label</t>
@@ -238,7 +446,7 @@
     <t>DarkCuriosity_DT.degreeDatas.0.description</t>
   </si>
   <si>
-    <t xml:space="preserve">All [PAWN_possessive] life [PAWN_nameDef] has wondered what was on the other side of the veil, and [PAWN_pronoun] has dedicated [PAWN_possessive] life to discovering this mystery in secret. [PAWN_possessive] efforts have rewarded [PAWN_objective] with a mind honed for research, but a frail body and disassociated consciousness. Even now, [PAWN_nameDef] keeps researching in private... </t>
+    <t>All [PAWN_possessive] life [PAWN_nameDef] has wondered what was on the other side of the veil, and [PAWN_pronoun] has dedicated [PAWN_possessive] life to discovering this mystery. [PAWN_pronoun] has seen unseeable things, and has learned unknowable truths, but as a result [PAWN_possessive] mind has become unstable.</t>
   </si>
   <si>
     <t>TraitDef+Paranoid_DT.degreeDatas.0.label</t>
@@ -256,7 +464,7 @@
     <t>Paranoid_DT.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>[PAWN_nameDef] is constantly looking over [PAWN_possessive] shoulder and worries about things both real and imagined. [PAWN_pronoun]'s unusually vigilant, but it really gets to [PAWN_objective], especially anything unusual or unexplainable.</t>
+    <t>[PAWN_nameDef] is constantly looking over [PAWN_possessive] shoulder and worries about things both real and imagined. [PAWN_pronoun]'s unusually vigilant and cautious, but it really gets to [PAWN_objective], especially anything unusual or unexplainable.</t>
   </si>
   <si>
     <t>TraitDef+Ageusia_DT.degreeDatas.0.label</t>
@@ -313,60 +521,6 @@
     <t xml:space="preserve">Due to issues with their nerves, [PAWN_nameDef] has no sense of touch. [PAWN_pronoun] can't feel pain, and [PAWN_pronoun] often has to check to make sure [PAWN_pronoun] hasnt hurt [PAWN_objective]self. Anything requiring lots of delicate touching is a struggle for [PAWN_objective]. </t>
   </si>
   <si>
-    <t>TraitDef+Sociopath_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Sociopath_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Sociopath</t>
-  </si>
-  <si>
-    <t>TraitDef+Sociopath_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Sociopath_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] isnt quite a psychopath, but [PAWN_pronoun] isnt a normal person either. Aside from close family and friends [PAWN_nameDef] feels no empathy, and is quick to get violently angry. This makes [PAWN_objective] dangerous to be around.</t>
-  </si>
-  <si>
-    <t>TraitDef+Devout_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Devout_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Devout</t>
-  </si>
-  <si>
-    <t>TraitDef+Devout_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Devout_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] is extremely devoted to [PAWN_possessive] beliefs and won't be easily swayed. When things are hard, [PAWN_nameDef] finds strength and purpose in what [PAWN_pronoun] believes.</t>
-  </si>
-  <si>
-    <t>TraitDef+Skeptic_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Skeptic_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Doubtful</t>
-  </si>
-  <si>
-    <t>TraitDef+Skeptic_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Skeptic_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] doesn't have much faith in [PAWN_possessive] beliefs and can easily be swayed by one [PAWN_pronoun] sees as more appealing. When times are hard, [PAWN_pronoun] often blames what [PAWN_pronoun] believes in.</t>
-  </si>
-  <si>
     <t>TraitDef+Anorexic_DT.degreeDatas.0.label</t>
   </si>
   <si>
@@ -385,78 +539,6 @@
     <t>[PAWN_nameDef] feels horrible after eating, and as such [PAWN_pronoun] will put it off for as long as [PAWN_nameDef] can, regardless of how damaging it is for [PAWN_possessive] body. [PAWN_pronoun] isn't particularly interested in cooking food either.</t>
   </si>
   <si>
-    <t>TraitDef+Patient_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Patient_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>TraitDef+Patient_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Patient_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] is a very patient person that is willing to put up with more than most and hear people out.</t>
-  </si>
-  <si>
-    <t>TraitDef+Tempermental_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Tempermental_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Tempermental</t>
-  </si>
-  <si>
-    <t>TraitDef+Tempermental_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Tempermental_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] has a very short fuse and tends to blow up at the smallest slights and annoyances.</t>
-  </si>
-  <si>
-    <t>TraitDef+FastEater_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>FastEater_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Fast eater</t>
-  </si>
-  <si>
-    <t>TraitDef+FastEater_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>FastEater_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] has places [PAWN_pronoun] would rather be and things [PAWN_pronoun] would rather do, and as a result [PAWN_pronoun] eats his food much faster than others.</t>
-  </si>
-  <si>
-    <t>TraitDef+SlowEater_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>SlowEater_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Slow eater</t>
-  </si>
-  <si>
-    <t>TraitDef+SlowEater_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>SlowEater_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] gets easily distracted with talking and daydreaming when [PAWN_pronoun] eats, causing [PAWN_objective] to take much longer to finish [PAWN_possessive] meal.</t>
-  </si>
-  <si>
     <t>TraitDef+Wanderer_DT.degreeDatas.0.label</t>
   </si>
   <si>
@@ -529,99 +611,6 @@
     <t>[PAWN_nameDef] lives for thrills and rushes, and is more willing to engage in risky behavior. Sometimes this pays off for [PAWN_objective] and othertimes it doesn't.</t>
   </si>
   <si>
-    <t>TraitDef+Peacemaker_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Peacemaker_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Peacemaker</t>
-  </si>
-  <si>
-    <t>TraitDef+Peacemaker_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Peacemaker_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This trait is not currently implimented at all, and its just here for referencings sake. If you see this in normal gameplay (no devmode/char editor/cheats) that means I've done something wrong and you should come tell me. Otherwise please have a nice day and remember God loves you :&gt; </t>
-  </si>
-  <si>
-    <t>TraitDef+SelfSabatoging_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>SelfSabatoging_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Self-sabotaging</t>
-  </si>
-  <si>
-    <t>TraitDef+SelfSabatoging_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>SelfSabatoging_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>TraitDef+Curmudgeon_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Curmudgeon_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Curmudgeon</t>
-  </si>
-  <si>
-    <t>TraitDef+Curmudgeon_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Curmudgeon_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>TraitDef+Womanizer_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Womanizer_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Womanizer</t>
-  </si>
-  <si>
-    <t>TraitDef+Womanizer_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Womanizer_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>TraitDef+Maneater_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Maneater_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Maneater</t>
-  </si>
-  <si>
-    <t>TraitDef+Maneater_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Maneater_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>TraitDef+Friendly_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Friendly_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Friendly</t>
-  </si>
-  <si>
-    <t>TraitDef+Friendly_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Friendly_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
     <t>TraitDef+Insomniac_DT.degreeDatas.0.label</t>
   </si>
   <si>
@@ -637,7 +626,7 @@
     <t>Insomniac_DT.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>[PAWN_nameDef] has a hard time falling and staying asleep. [PAWN_pronoun] stays in bed longer than others to get the same amount of sleep, but even then [PAWN_pronoun] still feels groggy.</t>
+    <t>[PAWN_nameDef] has a hard time falling and staying asleep. [PAWN_pronoun] needs to stay in bed longer than others to get the same amount of sleep.</t>
   </si>
   <si>
     <t>TraitDef+Infertile_DT.degreeDatas.0.label</t>
@@ -655,388 +644,278 @@
     <t>Infertile_DT.degreeDatas.0.description</t>
   </si>
   <si>
-    <t>TraitDef+Doting_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Doting_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Doting</t>
-  </si>
-  <si>
-    <t>TraitDef+Doting_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Doting_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>TraitDef+Creative_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Creative_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Creative</t>
-  </si>
-  <si>
-    <t>TraitDef+Creative_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Creative_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Thoughts of wonder and dreams of color paint the inside of [PAWN_nameDef]'s head. [PAWN_pronoun] has a vivid imagination and will sometimes find inspiration from otherwise mundane things.</t>
-  </si>
-  <si>
-    <t>TraitDef+Earnest_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Earnest_DT.degreeDatas.0.label</t>
+    <t>Due to uncontrollable health problems, [PAWN_nameDef] is infertile and cannot have biological children</t>
+  </si>
+  <si>
+    <t>TraitDef+Technophile_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Technophile_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Technophile</t>
+  </si>
+  <si>
+    <t>TraitDef+Technophile_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Technophile_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] is fascinated with technology and always wants shiny new toys. [PAWN_pronoun] is hopelessly in love with learning new tech and will do so at a faster rate than others.</t>
+  </si>
+  <si>
+    <t>TraitDef+Morbid_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Morbid_DT.degreeDatas.0.label</t>
+  </si>
+  <si>
+    <t>Morbid</t>
+  </si>
+  <si>
+    <t>TraitDef+Morbid_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>Morbid_DT.degreeDatas.0.description</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef] has lived a hard life, and has watched many of the people [PAWN_pronoun] cares about die. Death has lost all meaning to [PAWN_objective].</t>
+  </si>
+  <si>
+    <t>동물 공포증</t>
+  </si>
+  <si>
+    <t>[PAWN_possessive] 과거 트라우마로 인해 [PAWN_nameDef](은)는 동물에 대한 비합리적인 공포를 가지고 있으며, [PAWN_pronoun]는 동물 근처에 가는 것을 거부합니다.</t>
+  </si>
+  <si>
+    <t>상상력 부족</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 추상적인 개념을 이해하는 데 어려움을 겪으며, 실제로 만지거나 다룰 수 없는 것을 잘 이해하지 못합니다. [PAWN_nameDef](은)는 모든 것을 순전히 논리적으로만 바라보며, 경이로움이나 미신에 대한 여지가 없습니다.</t>
+  </si>
+  <si>
+    <t>혈액 공포증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 피를 보면 메스꺼움과 어지러움을 느껴 실제로 아무것도 할 수 없을 정도로 구역질을 하게 됩니다.</t>
+  </si>
+  <si>
+    <t>화재 공포증</t>
+  </si>
+  <si>
+    <t>어릴 때 [PAWN_nameDef](은)는 통제 불능의 화재로 심하게 화상을 입었으며, 그 기억이 여전히 [PAWN_objective] 괴롭히고 있습니다. [PAWN_pronoun]는 작은 스토브 화재조차도 떨림 없이는 처리할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>서투름</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 우아함이나 품위가 전혀 없습니다. [PAWN_pronoun]는 "걷는다기"보다는 계속해서 넘어지고 자신을 붙잡는다고 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>자기애</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자신에게 매우 만족하며, 자신이 생각하는 것보다 하찮은 일은 하지 않으려 합니다. 그러나 [PAWN_pronoun]는 자신의 위대함에 맞는 편의 시설과 사람들을 매우 좋아합니다.</t>
+  </si>
+  <si>
+    <t>바보</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 특히 똑똑하지 않으며, 고등 사고를 요구하는 모든 형태의 작업에 어려움을 겪습니다. [PAWN_pronoun]는 대부분의 사람들보다 배우는 속도가 느리며, 생각을 많이 필요로 하는 일을 할 수 없습니다. 그러나 적어도 [PAWN_pronoun]는 행복해 보입니다.</t>
+  </si>
+  <si>
+    <t>폐소 공포증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 갇힌 느낌을 싫어하며, 좁은 방이나 터널에서 불편함을 느낍니다. [PAWN_pronoun]는 열린 공간을 훨씬 선호합니다.</t>
+  </si>
+  <si>
+    <t>식물 공포증</t>
+  </si>
+  <si>
+    <t>어떤 설명할 수 없는 이유로 [PAWN_nameDef](은)는 식물 주변에 있는 것을 견딜 수 없습니다. 그것은 [PAWN_objective] 어지럽게 만들고, 기분을 매우 나쁘게 합니다.</t>
+  </si>
+  <si>
+    <t>벙어리</t>
+  </si>
+  <si>
+    <t>뇌 손상, 신체적 제한 또는 과거의 트라우마로 인해 [PAWN_nameDef](은)는 말을 할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>어두운 호기심</t>
+  </si>
+  <si>
+    <t>[PAWN_possessive] 인생 내내 [PAWN_nameDef](은)는 베일 너머에 무엇이 있는지 궁금해 했고, 이 미스터리를 비밀리에 발견하는 데 인생을 바쳤습니다. [PAWN_possessive] 노력은 연구를 위한 명석한 마음을 주었지만, 연약한 몸과 분리된 의식을 가져왔습니다. 지금도 [PAWN_nameDef](은)는 비밀리에 연구를 계속하고 있습니다...</t>
+  </si>
+  <si>
+    <t>편집증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 끊임없이 주변을 경계하며, 현실적이든 상상이든 모든 것에 대해 걱정합니다. [PAWN_pronoun]는 비정상적으로 경계심이 강하지만, 특히 비정상적이거나 설명할 수 없는 것들이 [PAWN_objective] 괴롭힙니다.</t>
+  </si>
+  <si>
+    <t>미각 상실증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 미각이 없어 음식을 즐기거나 싫어할 수 없습니다. [PAWN_pronoun]는 그냥 음식을 먹고 나서 아무런 생각 없이 넘어갑니다.</t>
+  </si>
+  <si>
+    <t>후각 상실증</t>
+  </si>
+  <si>
+    <t>태어날 때부터 후각이 없거나 중간에 잃었는지는 알 수 없지만, [PAWN_nameDef](은)는 후각이 없습니다.</t>
+  </si>
+  <si>
+    <t>저감각증</t>
+  </si>
+  <si>
+    <t>신경 문제로 인해 [PAWN_nameDef](은)는 촉각을 느낄 수 없습니다. [PAWN_pronoun]는 통증을 느낄 수 없으며, 자주 자신이 다치지 않았는지 확인해야 합니다. 정교한 손길을 많이 요구하는 일은 [PAWN_objective]에게 어려운 일입니다.</t>
+  </si>
+  <si>
+    <t>거식증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 식사 후에 기분이 매우 나빠져서, 자신의 몸에 해로울 정도로 가능한 한 오랫동안 식사를 미룹니다. [PAWN_pronoun]는 요리에도 별다른 흥미가 없습니다.</t>
+  </si>
+  <si>
+    <t>방랑자</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자유로운 영혼을 가지고 있으며 목적 없이 돌아다니는 것을 좋아합니다. [PAWN_pronoun]는 가고 싶은 곳에 더 빨리 갈 수 있지만, 어려운 일이 생기면 모든 것을 내려놓고 산책을 갈 수도 있습니다. 만약 돌아오게 되면, [PAWN_pronoun]는 기분이 좋아질 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>쾌락주의자</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 쾌락을 갈망하며 그것을 무모하게 즐깁니다. 좋다면 [PAWN_nameDef](은)는 그것을 원합니다.</t>
+  </si>
+  <si>
+    <t>건강염려증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자신의 건강에 집착하며, 얼마나 비합리적인지 상관없이 모든 종류의 질병에 걸릴까 걱정합니다. 그 결과 [PAWN_pronoun]는 매우 청결하고 스트레스를 받습니다.</t>
+  </si>
+  <si>
+    <t>데어데블</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 스릴과 흥분을 위해 살며, 위험한 행동을 더 기꺼이 합니다. 때로는 이로 인해 이득을 보기도 하고, 때로는 그렇지 않기도 합니다.</t>
+  </si>
+  <si>
+    <t>이 특성은 현재 전혀 구현되지 않았으며, 참고용으로만 여기에 있습니다. 이 특성이 정상적인 게임플레이(개발 모드/캐릭터 에디터/치트 없이)에서 보인다면 제가 뭔가 잘못한 것이므로 알려주시기 바랍니다. 그렇지 않다면 즐거운 하루 되시고, 신이 여러분을 사랑하심을 기억해주세요. :&gt;</t>
+  </si>
+  <si>
+    <t>불면증</t>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 잠들거나 잠을 유지하는 데 어려움을 겪습니다. [PAWN_pronoun]는 다른 사람들보다 더 오래 침대에 머물러야 같은 양의 수면을 취할 수 있지만, 그래도 여전히 피곤함을 느낍니다.</t>
+  </si>
+  <si>
+    <t>불임</t>
+  </si>
+  <si>
+    <t>잠재력</t>
+  </si>
+  <si>
+    <t>기술 애호가</t>
+  </si>
+  <si>
+    <t>기만적</t>
+  </si>
+  <si>
+    <t>타고난 재능</t>
+  </si>
+  <si>
+    <t>작은 체구</t>
   </si>
   <si>
     <t>Earnest</t>
-  </si>
-  <si>
-    <t>TraitDef+Earnest_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Earnest_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] means every single word [PAWN_pronoun] says, and never lies to avoid hurting someones feelings or to make them feel better than they are. Everyone takes what [PAWN_nameDef] says to heart.</t>
-  </si>
-  <si>
-    <t>TraitDef+Disingenuous_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Disingenuous_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Disingenuous</t>
-  </si>
-  <si>
-    <t>TraitDef+Disingenuous_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Disingenuous_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Evasive wording and sarcasm is [PAWN_nameDef]'s bread and butter when it comes to social situations. It makes it hard to take anything [PAWN_pronoun] says seriously.</t>
-  </si>
-  <si>
-    <t>TraitDef+Hemophilic_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Hemophilic_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Hemophilic</t>
-  </si>
-  <si>
-    <t>TraitDef+Hemophilic_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Hemophilic_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>TraitDef+Gifted_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Gifted_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Gifted</t>
-  </si>
-  <si>
-    <t>TraitDef+Gifted_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Gifted_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] is just naturally good at everything [PAWN_pronoun] does. However, this does have the tragic side effect of [PAWN_nameDef] never really learning how to practice or study.</t>
-  </si>
-  <si>
-    <t>TraitDef+Potential_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Potential_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Potential</t>
-  </si>
-  <si>
-    <t>TraitDef+Potential_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Potential_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] might not seem like much, but with hard work and time [PAWN_pronoun] can become something amazing.</t>
-  </si>
-  <si>
-    <t>TraitDef+Technophile_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Technophile_DT.degreeDatas.0.label</t>
-  </si>
-  <si>
-    <t>Technophile</t>
-  </si>
-  <si>
-    <t>TraitDef+Technophile_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>Technophile_DT.degreeDatas.0.description</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef] is fascinated with technology and always wants shiny new toys. [PAWN_pronoun] is hopelessly in love with learning new tech and will do so at a faster rate than others.</t>
-  </si>
-  <si>
-    <t>동물 공포증</t>
-  </si>
-  <si>
-    <t>상상력 부족</t>
-  </si>
-  <si>
-    <t>혈액 공포증</t>
-  </si>
-  <si>
-    <t>화재 공포증</t>
-  </si>
-  <si>
-    <t>서투름</t>
-  </si>
-  <si>
-    <t>자기애</t>
-  </si>
-  <si>
-    <t>바보</t>
-  </si>
-  <si>
-    <t>폐소 공포증</t>
-  </si>
-  <si>
-    <t>식물 공포증</t>
-  </si>
-  <si>
-    <t>벙어리</t>
-  </si>
-  <si>
-    <t>어두운 호기심</t>
-  </si>
-  <si>
-    <t>편집증</t>
-  </si>
-  <si>
-    <t>미각 상실증</t>
-  </si>
-  <si>
-    <t>후각 상실증</t>
-  </si>
-  <si>
-    <t>저감각증</t>
-  </si>
-  <si>
-    <t>신실함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진지함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경질적임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음울함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 기술에 매료되어 있으며, 항상 반짝이는 새로운 장난감을 원합니다. [PAWN_pronoun]는 새로운 기술을 배우는 것을 매우 좋아하며, 다른 사람들보다 더 빠르게 배울 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 사회적 상황에서 회피적인 말투와 냉소가 기본적인 대화 방식입니다. 그로 인해 [PAWN_pronoun]의 말을 진지하게 받아들이기 어렵습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자신이 하는 모든 말을 진심으로 믿으며, 다른 사람의 기분을 맞추거나 상처를 피하기 위해 거짓말하지 않습니다. 모두가 [PAWN_nameDef]의 말을 마음에 새깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의심 많음</t>
-  </si>
-  <si>
-    <t>거식증</t>
-  </si>
-  <si>
-    <t>참을성 있음</t>
-  </si>
-  <si>
-    <t>성미 급함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자신의 신념에 큰 확신이 없으며, 더 매력적으로 보이는 사람에게 쉽게 흔들립니다다. 힘든 시기에는 자신이 믿는 것을 탓하곤 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신앙심 깊음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 자신의 신념에 깊이 헌신하며, 쉽게 흔들리지 않습니다. 어려운 상황에서도 [PAWN_nameDef](은)는 자신이 믿는 것에서 힘과 의미를 찾습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 매우 약한 인내심을 가지고 있으며, 작은 모욕이나 불쾌한 일에도 쉽게 폭발합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인내심 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 매우 인내심이 강한 사람으로, 대부분의 사람보다 더 많은 것을 참아내며 타인의 말을 끝까지 들어줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느린 식사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 식사 중 대화나 공상 때문에 쉽게 산만해져, 식사를 끝내는 데 훨씬 더 오래 걸립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>빠른 식사</t>
-  </si>
-  <si>
-    <t>느린 식사</t>
-  </si>
-  <si>
-    <t>방랑자</t>
-  </si>
-  <si>
-    <t>쾌락주의자</t>
-  </si>
-  <si>
-    <t>건강염려증</t>
-  </si>
-  <si>
-    <t>평화주의자</t>
-  </si>
-  <si>
-    <t>자기파괴적</t>
-  </si>
-  <si>
-    <t>짜증쟁이</t>
-  </si>
-  <si>
-    <t>여자 홀리는 남자</t>
-  </si>
-  <si>
-    <t>남자 홀리는 여자</t>
-  </si>
-  <si>
-    <t>친근함</t>
-  </si>
-  <si>
-    <t>불면증</t>
-  </si>
-  <si>
-    <t>불임</t>
-  </si>
-  <si>
-    <t>자상함</t>
-  </si>
-  <si>
-    <t>창의적</t>
-  </si>
-  <si>
-    <t>경이로움과 색깔의 꿈이 [PAWN_nameDef]의 머릿속을 그립니다. [PAWN_pronoun]는 생생한 상상력을 가지고 있으며, 때로는 평범한 것들에서 영감을 얻습니다.</t>
-  </si>
-  <si>
-    <t>진지함</t>
-  </si>
-  <si>
-    <t>불성실함</t>
-  </si>
-  <si>
-    <t>사회적 상황에서 회피적인 언어와 풍자가 [PAWN_nameDef]의 주특기입니다. 이는 [PAWN_pronoun]가 하는 말을 진지하게 받아들이기 어렵게 만듭니다.</t>
-  </si>
-  <si>
-    <t>혈우병</t>
-  </si>
-  <si>
-    <t>재능</t>
-  </si>
-  <si>
-    <t>잠재력</t>
-  </si>
-  <si>
-    <t>기술 애호가</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 추상적인 개념을 이해하는 데 어려움을 겪으며, 실제로 만지거나 다룰 수 없는 것을 잘 이해하지 못합니다. [PAWN_nameDef](은)는 모든 것을 순전히 논리적으로만 바라보며, 경이로움이나 미신에 대한 여지가 없습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 피를 보면 메스꺼움과 어지러움을 느껴 실제로 아무것도 할 수 없을 정도로 구역질을 하게 됩니다.</t>
-  </si>
-  <si>
-    <t>뇌 손상, 신체적 제한 또는 과거의 트라우마로 인해 [PAWN_nameDef](은)는 말을 할 수 없습니다.</t>
-  </si>
-  <si>
-    <t>태어날 때부터 후각이 없거나 중간에 잃었는지는 알 수 없지만, [PAWN_nameDef](은)는 후각이 없습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 자신의 신념에 매우 헌신적이며 쉽게 흔들리지 않습니다. 어려운 시기에 [PAWN_nameDef](은)는 자신이 믿는 것에서 힘과 목적을 찾습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 매우 인내심이 강한 사람으로, 대부분의 사람들보다 더 많은 것을 받아들이고 사람들의 이야기를 들어줍니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 성격이 급하고 작은 모욕과 짜증에도 쉽게 폭발합니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 다른 곳에 가고 싶거나 다른 일을 하고 싶어서 음식을 다른 사람들보다 훨씬 빠르게 먹습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 식사할 때 이야기하거나 공상하는 데 쉽게 집중을 잃어, 식사를 마치는 데 더 오래 걸립니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 쾌락을 갈망하며 그것을 무모하게 즐깁니다. 좋다면 [PAWN_nameDef](은)는 그것을 원합니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 스릴과 흥분을 위해 살며, 위험한 행동을 더 기꺼이 합니다. 때로는 이로 인해 이득을 보기도 하고, 때로는 그렇지 않기도 합니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 자신이 하는 모든 말을 진심으로 하고, 사람들의 감정을 상하게 하거나 그들이 실제보다 더 좋게 느끼게 하려고 거짓말하지 않습니다. 모든 사람은 [PAWN_nameDef]의 말을 가슴에 새깁니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 별로 대단해 보이지 않을 수도 있지만, 열심히 노력하고 시간을 들이면 놀라운 사람이 될 수 있습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_possessive] 과거 트라우마로 인해 [PAWN_nameDef](은)는 동물에 대한 비합리적인 공포를 가지고 있으며, [PAWN_pronoun]는 동물 근처에 가는 것을 거부합니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 우아함이나 품위가 전혀 없습니다. [PAWN_pronoun]는 "걷는다기"보다는 계속해서 넘어지고 자신을 붙잡는다고 할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 특히 똑똑하지 않으며, 고등 사고를 요구하는 모든 형태의 작업에 어려움을 겪습니다. [PAWN_pronoun]는 대부분의 사람들보다 배우는 속도가 느리며, 생각을 많이 필요로 하는 일을 할 수 없습니다. 그러나 적어도 [PAWN_pronoun]는 행복해 보입니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 갇힌 느낌을 싫어하며, 좁은 방이나 터널에서 불편함을 느낍니다. [PAWN_pronoun]는 열린 공간을 훨씬 선호합니다.</t>
-  </si>
-  <si>
-    <t>어떤 설명할 수 없는 이유로 [PAWN_nameDef](은)는 식물 주변에 있는 것을 견딜 수 없습니다. 그것은 [PAWN_objective] 어지럽게 만들고, 기분을 매우 나쁘게 합니다.</t>
-  </si>
-  <si>
-    <t>어릴 때 [PAWN_nameDef](은)는 통제 불능의 화재로 심하게 화상을 입었으며, 그 기억이 여전히 [PAWN_objective] 괴롭히고 있습니다. [PAWN_pronoun]는 작은 스토브 화재조차도 떨림 없이는 처리할 수 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 자신에게 매우 만족하며, 자신이 생각하는 것보다 하찮은 일은 하지 않으려 합니다. 그러나 [PAWN_pronoun]는 자신의 위대함에 맞는 편의 시설과 사람들을 매우 좋아합니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 미각이 없어 음식을 즐기거나 싫어할 수 없습니다. [PAWN_pronoun]는 그냥 음식을 먹고 나서 아무런 생각 없이 넘어갑니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 자신의 신념에 큰 믿음을 가지고 있지 않으며, 더 매력적으로 보이는 것에 쉽게 흔들립니다. 어려운 시기에는 [PAWN_pronoun]는 종종 자신이 믿는 것을 탓합니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 식사 후에 기분이 매우 나빠져서, 자신의 몸에 해로울 정도로 가능한 한 오랫동안 식사를 미룹니다. [PAWN_pronoun]는 요리에도 별다른 흥미가 없습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 자유로운 영혼을 가지고 있으며 목적 없이 돌아다니는 것을 좋아합니다. [PAWN_pronoun]는 가고 싶은 곳에 더 빨리 갈 수 있지만, 어려운 일이 생기면 모든 것을 내려놓고 산책을 갈 수도 있습니다. 만약 돌아오게 되면, [PAWN_pronoun]는 기분이 좋아질 수도 있습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 자신의 건강에 집착하며, 얼마나 비합리적인지 상관없이 모든 종류의 질병에 걸릴까 걱정합니다. 그 결과 [PAWN_pronoun]는 매우 청결하고 스트레스를 받습니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 잠들거나 잠을 유지하는 데 어려움을 겪습니다. [PAWN_pronoun]는 다른 사람들보다 더 오래 침대에 머물러야 같은 양의 수면을 취할 수 있지만, 그래도 여전히 피곤함을 느낍니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 기술에 매료되어 있으며, 항상 반짝이는 새로운 장난감을 원합니다. [PAWN_pronoun]는 새로운 기술을 배우는 것을 매우 좋아하며, 다른 사람들보다 더 빠르게 배울 것입니다.</t>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 끊임없이 주변을 경계하며, 현실적이든 상상이든 모든 것에 대해 걱정합니다. [PAWN_pronoun]는 비정상적으로 경계심이 강하지만, 특히 비정상적이거나 설명할 수 없는 것들이 [PAWN_objective] 괴롭힙니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경 문제로 인해 [PAWN_nameDef](은)는 촉각을 느낄 수 없습니다. [PAWN_pronoun]는 통증을 느낄 수 없으며, 자주 자신이 다치지 않았는지 확인해야 합니다. 정교한 손길을 많이 요구하는 일은 [PAWN_objective]에게 어려운 일입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소시오패스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_possessive] 인생 내내 [PAWN_nameDef](은)는 베일 너머에 무엇이 있는지 궁금해 했고, 이 미스터리를 비밀리에 발견하는 데 인생을 바쳤습니다. [PAWN_possessive] 노력은 연구를 위한 명석한 마음을 주었지만, 연약한 몸과 분리된 의식을 가져왔습니다. 지금도 [PAWN_nameDef](은)는 비밀리에 연구를 계속하고 있습니다...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 완전히 사이코패스는 아니지만, 정상적인 사람도 아닙니다. 가까운 가족과 친구를 제외하고 [PAWN_nameDef](은)는 공감을 느끼지 않으며, 쉽게 폭력적으로 변할 수 있습니다. 이는 [PAWN_possessive] 주변 사람들에게 위험을 초래합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데어데블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 특성은 현재 전혀 구현되지 않았으며, 참고용으로만 여기에 있습니다. 이 특성이 정상적인 게임플레이(개발 모드/캐릭터 에디터/치트 없이)에서 보인다면 제가 뭔가 잘못한 것이므로 알려주시기 바랍니다. 그렇지 않다면 즐거운 하루 되시고, 신이 여러분을 사랑하심을 기억해주세요. :&gt;</t>
-  </si>
-  <si>
-    <t>이 특성은 현재 전혀 구현되지 않았으며, 참고용으로만 여기에 있습니다. 이 특성이 정상적인 게임플레이(개발 모드/캐릭터 에디터/치트 없이)에서 보인다면 제가 뭔가 잘못한 것이므로 알려주시기 바랍니다. 그렇지 않다면 즐거운 하루 되시고, 신이 여러분을 사랑하심을 기억해주세요. :&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 하는 모든 일을 타고난 재능으로 잘합니다. 그러나 이것은 [PAWN_nameDef](이)가 연습하거나 공부하는 법을 배우지 못하는 비극적인 부작용을 가져옵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 다른 곳에 가고 싶거나 하고 싶은 일이 많아, 다른 사람들보다 훨씬 빨리 식사를 마칩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 하는 모든 일에서 타고난 재능을 보입니다. 하지만 그 부작용으로 인해 연습이나 공부하는 법을 제대로 배우지 못했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 처음엔 별로 대단해 보이지 않지만, 노력과 시간이 주어진다면 놀라운 존재가 될 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 또래에 비해 유난히 작은 편입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 힘든 삶을 살아왔으며, 소중히 여기던 많은 사람들이 죽는 것을 지켜보았다. 이제 죽음은 [PAWN_pronoun]에게 아무런 의미도 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1051,16 +930,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1085,7 +966,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1388,19 +1269,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="72.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1439,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1456,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,945 +1352,945 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>320</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>328</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>329</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>331</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>308</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="F58" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2425,7 +2307,7 @@
         <v>182</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2439,456 +2321,184 @@
         <v>184</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>333</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>